--- a/Testcase.xlsx
+++ b/Testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoodahun/Documents/Github/Java/RestAPI Testing from Scrath -RestAssured/ExcelDriven-RestAssured/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A61656-3C27-7B42-92F6-248A30A634DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1F6FDB-B7D2-7C46-9617-31565A29BED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="960" windowWidth="28300" windowHeight="17040" xr2:uid="{203CCE4C-B43B-784E-87C3-9B28BAFCC4D3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Testcase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,22 @@
   </si>
   <si>
     <t>deleteProfile3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestAddBook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testtestest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB13D7CF-A671-8E4A-A1DF-FD6C45C1FA79}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -508,7 +524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -522,7 +538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -536,7 +552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -548,6 +564,23 @@
       </c>
       <c r="D5" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>1232112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
